--- a/asset/client-template.xlsx
+++ b/asset/client-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kava &amp; Kodek\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80AA5BF-B3D0-452F-99EB-7EF6CF21F476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB9619F-F593-4EE4-BB88-892B3D0539BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -78,9 +78,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>ACTIVE,IN-ACTIVE,CANCELED</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADDRESS LINE 1 </t>
   </si>
   <si>
@@ -165,7 +162,28 @@
     <t>GOAL</t>
   </si>
   <si>
-    <t>SPECIAL QUATATION</t>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>MALE,FEMALE,NONE</t>
+  </si>
+  <si>
+    <t>ACTIVE,INACTIVE,CANCELED</t>
+  </si>
+  <si>
+    <t>ADD semicolon if multiple</t>
+  </si>
+  <si>
+    <t>MONTHLY,QUATERLY</t>
+  </si>
+  <si>
+    <t>required if occupation business or both</t>
+  </si>
+  <si>
+    <t>SPECIAL REMARKS</t>
+  </si>
+  <si>
+    <t>ADD SEMICOLON IF MULTIPLE</t>
   </si>
 </sst>
 </file>
@@ -231,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -240,6 +258,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,33 +552,37 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.109375" style="3" customWidth="1"/>
-    <col min="32" max="32" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.109375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,151 +592,173 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="V1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="AC1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AH1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="4"/>
     </row>
-    <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
+      <c r="M2" t="s">
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
+        <v>30</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -720,10 +767,10 @@
       <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -735,7 +782,7 @@
       <c r="M4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -747,13 +794,13 @@
       <c r="R4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="X4" s="6" t="s">
@@ -766,18 +813,22 @@
         <v>5</v>
       </c>
       <c r="AA4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="AD4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="6"/>
+      <c r="AK4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asset/client-template.xlsx
+++ b/asset/client-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kava &amp; Kodek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\cci\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB9619F-F593-4EE4-BB88-892B3D0539BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B0622E-61FC-45BA-AF6D-D36C95C94FF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>ADD SEMICOLON IF MULTIPLE</t>
+  </si>
+  <si>
+    <t>YES,NO,NOT KNOWN</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,10 +719,10 @@
         <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>30</v>
